--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3221817.283085527</v>
+        <v>3297346.952750332</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665968</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>218.5621874908231</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>194.3461467504332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.67129869336531</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>12.84584032841726</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.791117132838708</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>118.8460297402135</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.71942951605208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>29.2178032908135</v>
+        <v>240.9592984209434</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>120.0258340400108</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>21.89027369222202</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.82351342362352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>73.50096938092089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.9242040559336</v>
+        <v>28.79214306463596</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.3674466655055</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>109.7395205132418</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.73966146813997</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4060353162359</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>98.20948901158175</v>
       </c>
       <c r="C28" t="n">
-        <v>4.62607914575855</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>111.8652689647493</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>49.95572800109374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>127.617615958408</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>12.425435656791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>238.3292661855149</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417138</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3554,22 +3556,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>111.8652689647493</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.562624396427112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274059</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.0927019057084</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>37.0313591381471</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4031,19 +4033,19 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>46.40325351948532</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.069036214947</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2038.792683271916</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452407</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>2549.002432452407</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>2549.002432452407</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>2259.585262415446</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>2259.585262415446</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>2038.792683271916</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.270788283222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.270788283222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2522.073906861631</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2522.073906861631</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.073906861631</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>202.109700313688</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>202.109700313688</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>202.109700313688</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>202.109700313688</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>65.78078941233625</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2027.782796226253</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.782796226253</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="V10" t="n">
-        <v>286.5323736931987</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W10" t="n">
-        <v>286.5323736931987</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.4221461351941</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5232,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>592.5368061590563</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.4221461351941</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,10 +5299,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,52 +5515,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3708.096708145162</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4037.959335809194</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4317.499401027892</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.3977182706318</v>
+        <v>444.8933943850835</v>
       </c>
       <c r="C19" t="n">
-        <v>531.3977182706318</v>
+        <v>444.8933943850835</v>
       </c>
       <c r="D19" t="n">
-        <v>531.3977182706318</v>
+        <v>444.8933943850835</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706318</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706318</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5728,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5789,13 +5791,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465857</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3540.192194764782</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557068</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.8683222506741</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188989</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4512536188989</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X22" t="n">
-        <v>481.4617027208816</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.4617027208816</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6072,22 +6074,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4150.724813749353</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="C25" t="n">
-        <v>4150.724813749353</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.173262924873</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924873</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746783</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929844</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929844</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892883</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X25" t="n">
-        <v>4371.517392892883</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y25" t="n">
-        <v>4150.724813749353</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372323</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764784</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N27" t="n">
-        <v>3870.054822428817</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>4539.518583731477</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4744.541064513686</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>510.7324460062433</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0596387883054</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0596387883054</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617345004</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364831</v>
+        <v>4321.869908593653</v>
       </c>
       <c r="Y28" t="n">
-        <v>692.3809108364831</v>
+        <v>4321.869908593653</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.117534194712</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4278.529112458863</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4558.06917767756</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4763.09165845977</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>882.7763375151577</v>
+        <v>379.1484955647072</v>
       </c>
       <c r="C31" t="n">
-        <v>713.8401545872508</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293938</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>882.7763375151577</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>882.7763375151577</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.7763375151577</v>
+        <v>560.796960394947</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,19 +6703,19 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899126</v>
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>425.8564518307277</v>
+        <v>3907.114899043188</v>
       </c>
       <c r="C34" t="n">
-        <v>425.8564518307277</v>
+        <v>3738.178716115281</v>
       </c>
       <c r="D34" t="n">
-        <v>425.8564518307277</v>
+        <v>3588.062076702945</v>
       </c>
       <c r="E34" t="n">
-        <v>277.9433582483348</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>277.9433582483348</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>109.7680365681555</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>109.7680365681555</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241959</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688075</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799369</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471198</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974668</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980065</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585748</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557904</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119729</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119729</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909235</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909235</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909235</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W34" t="n">
-        <v>874.6385818722749</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X34" t="n">
-        <v>646.6490309742577</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.8564518307277</v>
+        <v>4088.763363873428</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108312</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3190.928350499668</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>3959.29649689213</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556163</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.69918977486</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>821.8466850111563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>821.8466850111563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>671.7300455988207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557904</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557904</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.179638047283</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1003.495149841396</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1003.495149841396</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1003.495149841396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.495149841396</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108312</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>3190.928350499668</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>3959.29649689213</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556163</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.69918977486</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.8359039819294</v>
+        <v>379.1484955647072</v>
       </c>
       <c r="C40" t="n">
-        <v>102.8359039819294</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="D40" t="n">
-        <v>102.8359039819294</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="E40" t="n">
-        <v>102.8359039819294</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="F40" t="n">
-        <v>102.8359039819294</v>
+        <v>210.2123126368003</v>
       </c>
       <c r="G40" t="n">
-        <v>102.8359039819294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>102.8359039819294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909235</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227938</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169071</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799466</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X40" t="n">
-        <v>102.8359039819294</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.8359039819294</v>
+        <v>560.796960394947</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899126</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7496,19 @@
         <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>943.0172707642137</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3607.068487499067</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="C43" t="n">
-        <v>3607.068487499067</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.068487499067</v>
+        <v>623.3380393229987</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916674</v>
+        <v>475.4249457406056</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916674</v>
+        <v>475.4249457406056</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916674</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916674</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.25603081147</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>4055.850617540614</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X43" t="n">
-        <v>3827.861066642597</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y43" t="n">
-        <v>3607.068487499067</v>
+        <v>955.1031435655742</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,61 +7636,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>592.5368061590572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>592.5368061590768</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>442.4201667467411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>294.507073164348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>294.507073164348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>294.507073164348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>144.0890647122912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7837,19 +7839,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570745</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>820.5263570570745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>592.5368061590572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>592.5368061590572</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>242.9997743936041</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>308.1251096272028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>349.7653003338563</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>159.0121003135237</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.47535963978139</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>398.9629823660881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711639</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>158.8724419039315</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>158.8724419039315</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.2603911806622</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>22.04402060665512</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>213.2603911806621</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>157.9417064897153</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.7611399284713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>213.0220289556701</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.50975859063556</v>
+        <v>117.6418195819332</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.46453351643184</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>88.18128947036148</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5071596304879</v>
       </c>
       <c r="D25" t="n">
-        <v>35.20943770197644</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>81.62249117035554</v>
       </c>
       <c r="C28" t="n">
-        <v>162.6207419528693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>54.62829949862831</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>236.5672703354973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.81634668816116</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>97.99380980748083</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836031</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>47.90808621306229</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>54.62829949862828</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>104.8566210678447</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>51.40086655766916</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>249.4916391984437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>64.01599194478665</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>725239.1214241711</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725239.1214241714</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
@@ -26323,7 +26325,7 @@
         <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541048</v>
@@ -26335,25 +26337,25 @@
         <v>664749.4015541046</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687076</v>
-      </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687085</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687095</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798372</v>
+        <v>-140574.3206798375</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347071</v>
       </c>
       <c r="D6" t="n">
         <v>449393.5585347071</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162157</v>
+        <v>25427.43154162145</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185176</v>
+        <v>550587.4680185172</v>
       </c>
       <c r="G6" t="n">
+        <v>550587.4680185172</v>
+      </c>
+      <c r="H6" t="n">
         <v>550587.4680185175</v>
-      </c>
-      <c r="H6" t="n">
-        <v>550587.4680185174</v>
       </c>
       <c r="I6" t="n">
         <v>550587.4680185174</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259242</v>
+        <v>374164.2488259246</v>
       </c>
       <c r="K6" t="n">
-        <v>550587.4680185174</v>
+        <v>550587.4680185175</v>
       </c>
       <c r="L6" t="n">
         <v>550587.4680185175</v>
       </c>
       <c r="M6" t="n">
-        <v>415786.4527846802</v>
+        <v>415786.4527846804</v>
       </c>
       <c r="N6" t="n">
-        <v>550587.4680185171</v>
+        <v>550587.4680185177</v>
       </c>
       <c r="O6" t="n">
-        <v>550587.4680185169</v>
+        <v>550587.4680185172</v>
       </c>
       <c r="P6" t="n">
-        <v>550587.4680185176</v>
+        <v>550587.4680185174</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26750,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>188.3138582508883</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>191.8917919056204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.5755224052625</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.7388130236775</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.6245956761328</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>208.9062287299215</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>33.48052967248492</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.01048066168093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>320.0231654265995</v>
+        <v>108.2816702964696</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,25 +28058,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>105.0092714180735</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>140.8672054578625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
     </row>
     <row r="15">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>450.0931893251287</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109073</v>
@@ -36440,25 +36442,25 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>618.5494866776692</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749645</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
@@ -36680,10 +36682,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>492.2066737115367</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178378</v>
@@ -36692,7 +36694,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.4883924248555</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>709.3873594165544</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686866</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37084,7 +37086,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37157,19 +37159,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655657</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109073</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>408.1301468599559</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37403,7 +37405,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655657</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37558,7 +37560,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
@@ -37622,16 +37624,16 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>408.1301468599559</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786751</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37640,7 +37642,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655657</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37795,7 +37797,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
@@ -37862,10 +37864,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>271.3017255626795</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686866</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655657</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>495.6240934217703</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3297346.952750332</v>
+        <v>3290329.937858623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>218.5621874908231</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>13.19324603544265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.84584032841726</v>
+        <v>41.03250833503017</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.791117132838708</v>
+        <v>142.3003011482962</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.71942951605208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>107.0735227013098</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.9592984209434</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.0258340400108</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.89027369222202</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>173.7276203140483</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594995</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.79214306463596</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>57.56452900498748</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>109.7395205132418</v>
+        <v>5.562624396425565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.73966146813997</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.20948901158175</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.8652689647493</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>127.617615958408</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>111.8652689647493</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.930904319359</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.0927019057084</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.337372245452</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.337372245452</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.337372245452</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="E2" t="n">
-        <v>1173.337372245452</v>
+        <v>415.3331177418859</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>408.3876169926825</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>394.4642129312734</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>67.26949296727622</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.270788283222</v>
+        <v>2553.411413090651</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.270788283222</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>202.109700313688</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F7" t="n">
-        <v>202.109700313688</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G7" t="n">
-        <v>202.109700313688</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H7" t="n">
-        <v>202.109700313688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>65.78078941233625</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>1750.153230744814</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>458.7441094385871</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>458.7441094385871</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>204.0596212327002</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027308</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027308</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1099.648410585743</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1099.648410585743</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>810.2312405487826</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706318</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.3977182706318</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,52 +5515,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>444.8933943850835</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C19" t="n">
-        <v>444.8933943850835</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D19" t="n">
-        <v>444.8933943850835</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655742</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286137</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286137</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.8933943850835</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1388.068270039477</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1388.068270039477</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1388.068270039477</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.38378183359</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>843.9666117966292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,10 +5992,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515096</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.85945949167</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4321.869908593653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4321.869908593653</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.1484955647072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>781.5895395384771</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.796960394947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3907.114899043188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3738.178716115281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3588.062076702945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4606.170084808406</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4316.752914771445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4088.763363873428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4088.763363873428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,13 +7113,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1382.222354598086</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>379.1484955647072</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C40" t="n">
-        <v>210.2123126368003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>210.2123126368003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>210.2123126368003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>210.2123126368003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473455</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.579090436494</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X40" t="n">
-        <v>781.5895395384771</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.796960394947</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,28 +7402,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.4546787353345</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C43" t="n">
-        <v>773.4546787353345</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>623.3380393229987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>475.4249457406056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>475.4249457406056</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655742</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W43" t="n">
-        <v>955.1031435655742</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X43" t="n">
-        <v>955.1031435655742</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y43" t="n">
-        <v>955.1031435655742</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>145.2351313103796</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338563</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>159.0121003135237</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>288.4091825776746</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>213.2603911806622</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.9417064897153</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>112.509732084529</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>79.43092547709148</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6418195819332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.9290394583901</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.18128947036148</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>124.5071596304879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.62249117035554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>54.62829949862831</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.81634668816116</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>54.62829949862828</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>52.31591677926885</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.40086655766916</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="10">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541053</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
@@ -26349,10 +26349,10 @@
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541046</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687076</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798375</v>
+        <v>-140574.3206798373</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347071</v>
+        <v>449393.5585347075</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347071</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162145</v>
+        <v>24452.84028189974</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185172</v>
+        <v>549612.8767587965</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185172</v>
+        <v>549612.8767587962</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587955</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259246</v>
+        <v>373189.6575662027</v>
       </c>
       <c r="K6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="L6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="M6" t="n">
-        <v>415786.4527846804</v>
+        <v>414811.8615249587</v>
       </c>
       <c r="N6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="O6" t="n">
-        <v>550587.4680185172</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="P6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.8767587957</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>188.3138582508883</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>138.7380702094186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.7388130236775</v>
+        <v>177.5521450170646</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>168.6245956761328</v>
+        <v>32.11541166067536</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>33.48052967248492</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>67.34219010766169</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.2816702964696</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>105.0092714180735</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>118.923902605219</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>352.3285462419043</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749645</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>492.2066737115367</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>598.833559628141</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>546.4549645786751</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3290329.937858623</v>
+        <v>3295269.200707654</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I2" t="n">
-        <v>13.19324603544265</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.03250833503017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.3003011482962</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>153.055538822593</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.98569063694824</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>107.0735227013098</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>68.49439899867227</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.66075074687578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>173.7276203140483</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0920728594995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>21.21224374176667</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.56452900498748</v>
+        <v>6.063010891604091</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.562624396425565</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>33.40307388814202</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532058</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>166.4704758913033</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>157.3155121185904</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.107731335945625</v>
+        <v>194.8026695426854</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>43.70733080350626</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.349585887292</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1159.387068946881</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D2" t="n">
-        <v>801.1213703401302</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E2" t="n">
-        <v>415.3331177418859</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F2" t="n">
-        <v>408.3876169926825</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G2" t="n">
-        <v>394.4642129312734</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H2" t="n">
-        <v>67.26949296727622</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.6820060902423</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.6820060902423</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2553.411413090651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2334.776746062713</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2334.776746062713</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V5" t="n">
-        <v>2334.776746062713</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.008090792599</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>377.5443364482876</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>377.5443364482876</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>377.5443364482876</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>208.54453618662</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4792,31 +4792,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.965328113049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2533.965328113049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.203542751141</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1949.14065540757</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.372000137456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.906241876376</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>123.1292434351849</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>123.1292434351849</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>154.6104068172087</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>154.6104068172087</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.648410585743</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.648410585743</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>810.2312405487826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811258</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.3630803542126</v>
+        <v>272.2775278140555</v>
       </c>
       <c r="C19" t="n">
-        <v>155.3630803542126</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="D19" t="n">
-        <v>155.3630803542126</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="E19" t="n">
-        <v>155.3630803542126</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="F19" t="n">
-        <v>155.3630803542126</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279824</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y19" t="n">
-        <v>337.0115451844523</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,10 +5834,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5998,28 +5998,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>561.0854916454654</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,13 +6211,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,10 +6241,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.011712862356</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.883074075915</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>796.1985858700277</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7259,13 +7259,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1493.756945976139</v>
+        <v>1302.145897282463</v>
       </c>
       <c r="T40" t="n">
-        <v>1269.971530765645</v>
+        <v>1078.360482071968</v>
       </c>
       <c r="U40" t="n">
-        <v>980.8428919792032</v>
+        <v>789.2318432855265</v>
       </c>
       <c r="V40" t="n">
-        <v>726.1584037733163</v>
+        <v>534.5473550796396</v>
       </c>
       <c r="W40" t="n">
-        <v>436.7412337363557</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.3089140050929</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788628</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353326</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="44">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229576</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>112.509732084529</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43092547709148</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>197.3724096103281</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.9290394583901</v>
+        <v>160.4305575717735</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4289062937953</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.3938331833852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>64.2320489397988</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.8130786476576</v>
+        <v>3.118140440917813</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.31591677926885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>182.0023245855309</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541053</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798373</v>
+        <v>-140574.3206798371</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347075</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="D6" t="n">
         <v>449393.5585347073</v>
       </c>
       <c r="E6" t="n">
-        <v>24452.84028189974</v>
+        <v>25329.97241564911</v>
       </c>
       <c r="F6" t="n">
-        <v>549612.8767587965</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="G6" t="n">
-        <v>549612.8767587962</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="H6" t="n">
-        <v>549612.8767587955</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="I6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="J6" t="n">
-        <v>373189.6575662027</v>
+        <v>374066.7896999523</v>
       </c>
       <c r="K6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="L6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925457</v>
       </c>
       <c r="M6" t="n">
-        <v>414811.8615249587</v>
+        <v>415688.9936587081</v>
       </c>
       <c r="N6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="O6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="P6" t="n">
-        <v>549612.8767587957</v>
+        <v>550490.0088925455</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I2" t="n">
-        <v>138.7380702094186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>248.6849149968423</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.5521450170646</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.11541166067536</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>225.4894849711509</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.115350019202168</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>111.97993115539</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>67.34219010766169</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>87.67648984312288</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.923902605219</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277214</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734239</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37390,16 +37390,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
@@ -37627,16 +37627,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
